--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927117.2267341629</v>
+        <v>940444.9442212784</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453901</v>
+        <v>5435918.088148474</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668072</v>
+        <v>3904565.274227924</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7702502.505983697</v>
+        <v>8163624.468544331</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>58.6400205825638</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>29.06736062834963</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -877,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>119.2158337902828</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -908,10 +910,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -947,10 +949,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>186.144751981002</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>315.0489517761112</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1054,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>271.0640515220193</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1141,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>167.0216567798408</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>227.5386484027898</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>85.27448718791905</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>150.0170483146331</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>153.095296658268</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>4.702586979977263</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>321.6253710996518</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1904,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="20">
@@ -2084,13 +2086,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>108.2642464846192</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2242,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>22.16954853629574</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2257,7 +2259,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>109.6169299062874</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260364</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>84.14702075132226</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>35.10362800310591</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>28.21879981048506</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2801,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2959,10 +2961,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>131.4010377304179</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3040,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3080,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3193,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>118.1609477474694</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,16 +3319,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>191.9284587841978</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3433,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>150.7182174719653</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3715,7 +3717,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>271.0770354214525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3727,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>394.6057326584675</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.257876330812757</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>140.548818152191</v>
+        <v>105.7260771668982</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3989,10 +3991,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>21.70719544518445</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>70.69750854942532</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.8551695218477</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2169.303348048851</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C2" t="n">
-        <v>1759.178757362121</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D2" t="n">
-        <v>1699.94641333933</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E2" t="n">
-        <v>1285.606197856226</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>864.5757858099139</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>312.7727131152915</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.36411292753</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>1520.157464881917</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>2245.17458027019</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2888.805436687295</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2888.805436687295</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="W2" t="n">
-        <v>2579.524527713341</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="X2" t="n">
-        <v>2579.524527713341</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y2" t="n">
-        <v>2579.524527713341</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>84.83681971271005</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>809.8539351009829</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1513.811025646877</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1558.625167936721</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1372.233399816631</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1132.684660793333</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>849.8865133394575</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>576.0007682789794</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>296.9311037878538</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="X4" t="n">
-        <v>58.5872416475372</v>
+        <v>382.8468301365112</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.5872416475372</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1794.898152453549</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C5" t="n">
-        <v>1384.773561766819</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D5" t="n">
-        <v>980.3096318598798</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E5" t="n">
-        <v>565.9694163767765</v>
+        <v>1308.196065930497</v>
       </c>
       <c r="F5" t="n">
-        <v>144.9390043304641</v>
+        <v>887.1656538841842</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>478.4373697770163</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>167.5288724047343</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895618</v>
       </c>
       <c r="K5" t="n">
-        <v>596.7467427565767</v>
+        <v>873.5220822986013</v>
       </c>
       <c r="L5" t="n">
-        <v>795.1403494936445</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M5" t="n">
-        <v>1520.157464881917</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N5" t="n">
-        <v>2245.17458027019</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O5" t="n">
-        <v>2888.805436687295</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P5" t="n">
-        <v>2888.805436687295</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884473</v>
       </c>
       <c r="T5" t="n">
-        <v>2606.056005169949</v>
+        <v>3923.574410884473</v>
       </c>
       <c r="U5" t="n">
-        <v>2606.056005169949</v>
+        <v>3666.513919143983</v>
       </c>
       <c r="V5" t="n">
-        <v>2606.056005169949</v>
+        <v>3666.513919143983</v>
       </c>
       <c r="W5" t="n">
-        <v>2606.056005169949</v>
+        <v>3666.513919143983</v>
       </c>
       <c r="X5" t="n">
-        <v>2606.056005169949</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y5" t="n">
-        <v>2205.119332118039</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015673</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="K6" t="n">
-        <v>707.2063554754692</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="L6" t="n">
-        <v>707.2063554754692</v>
+        <v>742.2652816410957</v>
       </c>
       <c r="M6" t="n">
-        <v>707.2063554754692</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="N6" t="n">
-        <v>839.4134544636129</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1147.921091948674</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="C7" t="n">
-        <v>976.8277195103904</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="D7" t="n">
-        <v>817.3330748333003</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701795</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T7" t="n">
-        <v>1587.986138268387</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U7" t="n">
-        <v>1587.986138268387</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V7" t="n">
-        <v>1587.986138268387</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W7" t="n">
-        <v>1587.986138268387</v>
+        <v>268.8768161158519</v>
       </c>
       <c r="X7" t="n">
-        <v>1560.356496953953</v>
+        <v>268.8768161158519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1335.620798342718</v>
+        <v>268.8768161158519</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>873.1757622412066</v>
+        <v>1899.845002066954</v>
       </c>
       <c r="C8" t="n">
-        <v>463.0511715544767</v>
+        <v>1489.720411380224</v>
       </c>
       <c r="D8" t="n">
-        <v>58.5872416475372</v>
+        <v>1085.256481473285</v>
       </c>
       <c r="E8" t="n">
-        <v>58.5872416475372</v>
+        <v>670.9162659901813</v>
       </c>
       <c r="F8" t="n">
-        <v>58.5872416475372</v>
+        <v>249.8858539438688</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>322.8159175162134</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>322.8159175162134</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1035.407317328451</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>1811.725908320205</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>2564.906924958823</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>3208.537781375928</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3737.69447929508</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884473</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>3701.367926831332</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.81403137733</v>
+        <v>3444.307435090842</v>
       </c>
       <c r="V8" t="n">
-        <v>2084.977012788654</v>
+        <v>3094.469880427323</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.977012788654</v>
+        <v>2710.709579562491</v>
       </c>
       <c r="X8" t="n">
-        <v>1684.333614957606</v>
+        <v>2310.066181731444</v>
       </c>
       <c r="Y8" t="n">
-        <v>1283.396941905696</v>
+        <v>2310.066181731444</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015673</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L9" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="M9" t="n">
-        <v>646.5427122012401</v>
+        <v>550.0511229147953</v>
       </c>
       <c r="N9" t="n">
-        <v>1371.559827589513</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O9" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P9" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q9" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701795</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1298.470528487747</v>
+        <v>1731.136257844892</v>
       </c>
       <c r="C11" t="n">
-        <v>888.3459378010175</v>
+        <v>1321.011667158163</v>
       </c>
       <c r="D11" t="n">
-        <v>888.3459378010175</v>
+        <v>916.5477372512232</v>
       </c>
       <c r="E11" t="n">
-        <v>888.3459378010175</v>
+        <v>502.2075217681199</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895618</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>873.5220822986013</v>
       </c>
       <c r="L11" t="n">
-        <v>909.6145079915979</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M11" t="n">
-        <v>1634.631623379871</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N11" t="n">
-        <v>2359.648738768144</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O11" t="n">
-        <v>2359.648738768144</v>
+        <v>3697.137833605515</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>3697.137833605515</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400807</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884473</v>
       </c>
       <c r="T11" t="n">
-        <v>2843.226236732497</v>
+        <v>3701.367926831332</v>
       </c>
       <c r="U11" t="n">
-        <v>2843.226236732497</v>
+        <v>3444.307435090842</v>
       </c>
       <c r="V11" t="n">
-        <v>2493.388682068978</v>
+        <v>3094.469880427323</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.628381204147</v>
+        <v>2942.93750839234</v>
       </c>
       <c r="X11" t="n">
-        <v>2109.628381204147</v>
+        <v>2542.294110561292</v>
       </c>
       <c r="Y11" t="n">
-        <v>1708.691708152237</v>
+        <v>2141.357437509382</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015673</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="M12" t="n">
-        <v>839.4134544636129</v>
+        <v>924.1541904163741</v>
       </c>
       <c r="N12" t="n">
-        <v>839.4134544636129</v>
+        <v>1797.812282527992</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701795</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.810743970851</v>
+        <v>1701.754174477854</v>
       </c>
       <c r="C14" t="n">
-        <v>1302.686153284121</v>
+        <v>1291.629583791124</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.686153284121</v>
+        <v>887.1656538841842</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>887.1656538841842</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>887.1656538841842</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770163</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047343</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895618</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>873.5220822986013</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N14" t="n">
-        <v>1496.195756848048</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O14" t="n">
-        <v>2139.826613265153</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P14" t="n">
-        <v>2668.983311184305</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3904.213772294142</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3647.153280553652</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3297.315725890132</v>
       </c>
       <c r="W14" t="n">
-        <v>2924.611994518297</v>
+        <v>2913.555425025301</v>
       </c>
       <c r="X14" t="n">
-        <v>2523.96859668725</v>
+        <v>2512.912027194253</v>
       </c>
       <c r="Y14" t="n">
-        <v>2123.03192363534</v>
+        <v>2111.975354142343</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015673</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>411.0311327661229</v>
       </c>
       <c r="L15" t="n">
-        <v>719.6754135668255</v>
+        <v>411.0311327661229</v>
       </c>
       <c r="M15" t="n">
-        <v>1051.274882268159</v>
+        <v>1254.00821346069</v>
       </c>
       <c r="N15" t="n">
-        <v>1051.274882268159</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="O15" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P15" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701795</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C18" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D18" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E18" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G18" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H18" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>2945.549711724955</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>3788.526792419522</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R18" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S18" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T18" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U18" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V18" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W18" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X18" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y18" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X19" t="n">
-        <v>308.996436142379</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.930282068041</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1008.590066584938</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>844.951486148634</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="C22" t="n">
-        <v>844.951486148634</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="D22" t="n">
-        <v>685.4568414715441</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>685.4568414715441</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>520.8257155821353</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>353.5753245076787</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>203.9678693131354</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="X22" t="n">
-        <v>1069.687184759869</v>
+        <v>874.3830142463817</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.951486148634</v>
+        <v>874.3830142463817</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>421.4049038967599</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>421.4049038967599</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>421.4049038967599</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1351.253835533482</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>1072.184171042356</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X25" t="n">
-        <v>833.8403089020396</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y25" t="n">
-        <v>609.1046102908043</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>423.0977207349383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.074801429505</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>3920.035659288462</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3785.072964682925</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C31" t="n">
-        <v>3785.072964682925</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D31" t="n">
-        <v>3625.578320005835</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E31" t="n">
-        <v>3464.667504874155</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F31" t="n">
-        <v>3300.036378984746</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
         <v>3132.785987910289</v>
@@ -6652,19 +6654,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U31" t="n">
-        <v>4379.386737077264</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V31" t="n">
-        <v>4105.500992016786</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W31" t="n">
-        <v>4105.500992016786</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X31" t="n">
-        <v>3972.77267107697</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y31" t="n">
-        <v>3972.77267107697</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
         <v>179.5954603735497</v>
@@ -6698,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6788,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.7936626747511</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C34" t="n">
-        <v>521.7002902364676</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D34" t="n">
-        <v>362.2056455593776</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E34" t="n">
-        <v>242.8511528851661</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>1343.572929820347</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X34" t="n">
-        <v>1105.229067680031</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y34" t="n">
-        <v>880.4933690687955</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6965,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4110.830195187051</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3760.992640523532</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K36" t="n">
-        <v>212.9817385874103</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L36" t="n">
-        <v>874.0699105066985</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M36" t="n">
-        <v>874.0699105066985</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N36" t="n">
-        <v>874.0699105066985</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>3926.132899060943</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>3755.039526622659</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3595.544881945569</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3434.634066813889</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>4338.568304066222</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>4113.832605454987</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2633.74009917404</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>3089.546355439338</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>3750.634527358626</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4312.340419847156</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7363,16 +7365,16 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
         <v>93.2436976906228</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>860.3114316096855</v>
+        <v>1721.114813068185</v>
       </c>
       <c r="C41" t="n">
-        <v>860.3114316096855</v>
+        <v>1310.990222381455</v>
       </c>
       <c r="D41" t="n">
-        <v>455.8475017027461</v>
+        <v>906.5262924745157</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8475017027461</v>
+        <v>492.1860769914124</v>
       </c>
       <c r="F41" t="n">
-        <v>455.8475017027461</v>
+        <v>489.9053938289753</v>
       </c>
       <c r="G41" t="n">
-        <v>455.8475017027461</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="K41" t="n">
-        <v>596.7467427565767</v>
+        <v>619.336610830847</v>
       </c>
       <c r="L41" t="n">
-        <v>1309.338142568815</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M41" t="n">
-        <v>2034.355257957088</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N41" t="n">
-        <v>2079.044377662417</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>3697.137833605515</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400807</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884473</v>
       </c>
       <c r="T41" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884473</v>
       </c>
       <c r="U41" t="n">
-        <v>2794.081007170961</v>
+        <v>3666.513919143983</v>
       </c>
       <c r="V41" t="n">
-        <v>2444.243452507442</v>
+        <v>3316.676364480464</v>
       </c>
       <c r="W41" t="n">
-        <v>2060.48315164261</v>
+        <v>2932.916063615632</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.839753811563</v>
+        <v>2532.272665784585</v>
       </c>
       <c r="Y41" t="n">
-        <v>1258.903080759653</v>
+        <v>2131.335992732675</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015673</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J42" t="n">
-        <v>251.4000992101705</v>
+        <v>273.9899672844407</v>
       </c>
       <c r="K42" t="n">
-        <v>707.2063554754692</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L42" t="n">
-        <v>1368.294527394758</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="M42" t="n">
-        <v>2093.31164278303</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="N42" t="n">
-        <v>2105.076437498037</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1118.796222694422</v>
+        <v>2797.161421941504</v>
       </c>
       <c r="C43" t="n">
-        <v>976.8277195103904</v>
+        <v>2690.367404601203</v>
       </c>
       <c r="D43" t="n">
-        <v>817.3330748333003</v>
+        <v>2690.367404601203</v>
       </c>
       <c r="E43" t="n">
-        <v>656.4222597016197</v>
+        <v>2529.456589469522</v>
       </c>
       <c r="F43" t="n">
-        <v>491.791133812211</v>
+        <v>2529.456589469522</v>
       </c>
       <c r="G43" t="n">
-        <v>324.5407427377544</v>
+        <v>2529.456589469522</v>
       </c>
       <c r="H43" t="n">
-        <v>174.9332875432111</v>
+        <v>2529.456589469522</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2529.456589469522</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2543.539138874733</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2698.091466596971</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2957.988566877031</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>3247.252623317524</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3528.091405711775</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3787.652016038249</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3993.327456287861</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="S43" t="n">
-        <v>1401.594370148297</v>
+        <v>3872.463717970282</v>
       </c>
       <c r="T43" t="n">
-        <v>1401.594370148297</v>
+        <v>3632.914978946984</v>
       </c>
       <c r="U43" t="n">
-        <v>1118.796222694422</v>
+        <v>3350.116831493108</v>
       </c>
       <c r="V43" t="n">
-        <v>1118.796222694422</v>
+        <v>3076.23108643263</v>
       </c>
       <c r="W43" t="n">
-        <v>1118.796222694422</v>
+        <v>2797.161421941504</v>
       </c>
       <c r="X43" t="n">
-        <v>1118.796222694422</v>
+        <v>2797.161421941504</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.796222694422</v>
+        <v>2797.161421941504</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1734.737204016492</v>
+        <v>2042.044755217174</v>
       </c>
       <c r="C44" t="n">
-        <v>1324.612613329762</v>
+        <v>1631.920164530445</v>
       </c>
       <c r="D44" t="n">
-        <v>1324.612613329762</v>
+        <v>1227.456234623505</v>
       </c>
       <c r="E44" t="n">
-        <v>910.2723978466584</v>
+        <v>813.1160191404019</v>
       </c>
       <c r="F44" t="n">
-        <v>489.2419858003459</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="G44" t="n">
-        <v>80.51370169317806</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="K44" t="n">
-        <v>850.932214224331</v>
+        <v>282.2592718266484</v>
       </c>
       <c r="L44" t="n">
-        <v>1563.523614036569</v>
+        <v>994.8506716388864</v>
       </c>
       <c r="M44" t="n">
-        <v>1563.523614036569</v>
+        <v>1771.16926263064</v>
       </c>
       <c r="N44" t="n">
-        <v>2288.540729424842</v>
+        <v>2524.350279269258</v>
       </c>
       <c r="O44" t="n">
-        <v>2288.540729424842</v>
+        <v>3167.981135686363</v>
       </c>
       <c r="P44" t="n">
-        <v>2567.644429892003</v>
+        <v>3697.137833605515</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400807</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.855486090372</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3987.443861292973</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>3637.606306629453</v>
       </c>
       <c r="W44" t="n">
-        <v>2545.601781512029</v>
+        <v>3253.846005764622</v>
       </c>
       <c r="X44" t="n">
-        <v>2144.958383680981</v>
+        <v>2853.202607933574</v>
       </c>
       <c r="Y44" t="n">
-        <v>2144.958383680981</v>
+        <v>2452.265934881664</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015673</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="K45" t="n">
-        <v>251.4000992101705</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4000992101705</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="M45" t="n">
-        <v>251.4000992101705</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="N45" t="n">
-        <v>976.4172145984433</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="O45" t="n">
-        <v>1163.966560962894</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.672453451424</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>648.6665133042532</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="C46" t="n">
-        <v>648.6665133042532</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="D46" t="n">
-        <v>489.1718686271631</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="E46" t="n">
-        <v>489.1718686271631</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="F46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>81.17710972180744</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701795</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S46" t="n">
-        <v>1316.321651823697</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T46" t="n">
-        <v>1076.772912800399</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U46" t="n">
-        <v>793.9747653465236</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V46" t="n">
-        <v>793.9747653465236</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W46" t="n">
-        <v>793.9747653465236</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X46" t="n">
-        <v>793.9747653465236</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y46" t="n">
-        <v>793.9747653465236</v>
+        <v>81.17710972180744</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>593.0814890574372</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8064,22 +8066,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>84.07900905677383</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>785.533913987965</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>295.8829806255396</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>396.2872824041726</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>745.891489178132</v>
       </c>
       <c r="N6" t="n">
-        <v>186.7359176241982</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>317.4031951660413</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
@@ -8459,19 +8461,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8532,16 +8534,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>651.4586984391274</v>
+        <v>70.76403821083073</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
@@ -8553,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>411.5134437547853</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>680.5885068018474</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8772,19 +8774,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>178.5117997957785</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>396.2872824041726</v>
       </c>
       <c r="Q14" t="n">
-        <v>312.076355412274</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>392.5132420225932</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>389.3004056737939</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
@@ -9255,7 +9257,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9954,19 +9956,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>194.539943489316</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10370,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,19 +10436,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>492.8993828617429</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10823,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606055</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11066,22 +11068,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>138.0528157114968</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>287.6689177404327</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>65.07702441900929</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>292.249684728612</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>375.5722930456934</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11373,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>247.1952632065156</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -22550,22 +22552,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>341.7792700253062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22600,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>213.6458382258549</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>55.35263051300471</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.0631340559315</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22796,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>33.83966723160776</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22847,7 +22849,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>81.58801207662577</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>5.214916324195087</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23027,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>237.6193444862553</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23078,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>118.8005307140944</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>134.7099320246907</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>229.90564954155</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>66.88912255434178</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>375.2201108762059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23738,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884348</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="20">
@@ -23972,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>135.7301496940233</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>5.565655530429666</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>3.08319717252283</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>186.999866858551</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>241.1753398431084</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>129.680898419834</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24892,19 +24894,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>104.5593857884955</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.14075923289435</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>62.56142803888719</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>12.26659715854936</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,7 +25377,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.893130557884547</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.51323520937706</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>414.5622315950366</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>28.83362056170967</v>
+        <v>63.65636154700242</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>286.0922169533748</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25919,10 +25921,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>183.7923782736597</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.96753980825628</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579471.3127526145</v>
+        <v>494961.2604890607</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>579471.3127526141</v>
+        <v>692956.8213609038</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>579471.3127526143</v>
+        <v>692956.8213609037</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579471.3127526143</v>
+        <v>692956.8213609037</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579471.3127526144</v>
+        <v>692956.8213609036</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753576.160451573</v>
+        <v>753576.1604515729</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753576.1604515727</v>
+        <v>753576.1604515726</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753576.1604515729</v>
+        <v>753576.160451573</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753576.1604515729</v>
+        <v>753576.1604515727</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753576.160451573</v>
+        <v>753576.1604515729</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579471.312752614</v>
+        <v>692956.8213609036</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579471.3127526141</v>
+        <v>692956.8213609037</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>222737.5171656207</v>
+        <v>190259.0141861051</v>
       </c>
       <c r="C2" t="n">
-        <v>222737.5171656205</v>
+        <v>266351.730276878</v>
       </c>
       <c r="D2" t="n">
-        <v>222737.5171656206</v>
+        <v>266351.7302768781</v>
       </c>
       <c r="E2" t="n">
-        <v>222737.5171656205</v>
+        <v>266351.7302768779</v>
       </c>
       <c r="F2" t="n">
-        <v>222737.5171656206</v>
+        <v>266351.730276878</v>
       </c>
       <c r="G2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="H2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="I2" t="n">
         <v>289648.6675350937</v>
       </c>
-      <c r="H2" t="n">
-        <v>289648.667535094</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289648.6675350938</v>
-      </c>
       <c r="J2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="K2" t="n">
         <v>289648.6675350937</v>
       </c>
       <c r="L2" t="n">
+        <v>289648.6675350938</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289648.6675350939</v>
+      </c>
+      <c r="N2" t="n">
         <v>289648.6675350937</v>
       </c>
-      <c r="M2" t="n">
-        <v>289648.6675350938</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289648.6675350938</v>
-      </c>
       <c r="O2" t="n">
-        <v>222737.5171656206</v>
+        <v>266351.730276878</v>
       </c>
       <c r="P2" t="n">
-        <v>222737.5171656206</v>
+        <v>266351.7302768779</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159160.8707514665</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>41340.88454290947</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126792.4227070339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23160.83861544975</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="C4" t="n">
-        <v>23160.83861544975</v>
+        <v>27744.31372049975</v>
       </c>
       <c r="D4" t="n">
-        <v>23160.83861544975</v>
+        <v>27744.31372049976</v>
       </c>
       <c r="E4" t="n">
-        <v>23160.83861544975</v>
+        <v>27744.31372049975</v>
       </c>
       <c r="F4" t="n">
-        <v>23160.83861544975</v>
+        <v>27744.31372049975</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26454,10 +26456,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>23160.83861544975</v>
+        <v>27744.31372049975</v>
       </c>
       <c r="P4" t="n">
-        <v>23160.83861544975</v>
+        <v>27744.31372049975</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857365</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857365</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857365</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857365</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857365</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857365</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124001.3773850525</v>
+        <v>-69813.19074174794</v>
       </c>
       <c r="C6" t="n">
-        <v>121422.7748980425</v>
+        <v>-15875.65758366189</v>
       </c>
       <c r="D6" t="n">
-        <v>121422.7748980426</v>
+        <v>143285.2131678046</v>
       </c>
       <c r="E6" t="n">
-        <v>155050.3748980425</v>
+        <v>176912.8131678045</v>
       </c>
       <c r="F6" t="n">
-        <v>155050.3748980426</v>
+        <v>176912.8131678046</v>
       </c>
       <c r="G6" t="n">
-        <v>69855.65331412309</v>
+        <v>147249.9532033277</v>
       </c>
       <c r="H6" t="n">
+        <v>188590.8377462372</v>
+      </c>
+      <c r="I6" t="n">
+        <v>188590.8377462371</v>
+      </c>
+      <c r="J6" t="n">
+        <v>51996.03694034216</v>
+      </c>
+      <c r="K6" t="n">
+        <v>61798.41503920319</v>
+      </c>
+      <c r="L6" t="n">
+        <v>188590.8377462372</v>
+      </c>
+      <c r="M6" t="n">
         <v>188590.8377462373</v>
       </c>
-      <c r="I6" t="n">
-        <v>188590.8377462372</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-3021.665424115534</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>188590.8377462371</v>
       </c>
-      <c r="L6" t="n">
-        <v>188590.8377462371</v>
-      </c>
-      <c r="M6" t="n">
-        <v>188590.8377462372</v>
-      </c>
-      <c r="N6" t="n">
-        <v>188590.8377462372</v>
-      </c>
       <c r="O6" t="n">
-        <v>155050.3748980426</v>
+        <v>176912.8131678046</v>
       </c>
       <c r="P6" t="n">
-        <v>155050.3748980426</v>
+        <v>176912.8131678045</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>492.6503011525672</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.832349610192</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.6503011525672</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.6503011525672</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.832349610192</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>499.7912646003917</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>26.51472531835641</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>200.3975825626947</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>302.6379191232885</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>688.3272054397146</v>
       </c>
       <c r="N6" t="n">
-        <v>133.5425242304482</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>244.0796038327333</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>593.8944147007099</v>
+        <v>13.19975447241331</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>316.0280456919405</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>587.3987311760643</v>
       </c>
       <c r="P11" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>120.947516057361</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>302.6379191232885</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.042551013122</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>334.9489582841758</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
@@ -35975,7 +35977,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>138.425419678467</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>18.22667726606054</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,22 +37788,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>45.1405249548775</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>194.0195544595485</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>11.88363102525929</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>203.1132950553949</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>281.9229297648093</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>189.4437842065156</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>940444.9442212784</v>
+        <v>937831.7074986505</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5435918.088148474</v>
+        <v>5562152.400446149</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3904565.274227924</v>
+        <v>4028287.523710873</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8163624.468544331</v>
+        <v>8143920.541191365</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.338580986754886</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2471624369196</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>48.57570989689645</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>119.2158337902828</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>275.2363516570229</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>315.0489517761112</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1113,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>83.76217398785631</v>
       </c>
       <c r="W7" t="n">
-        <v>271.0640515220193</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>231.5993168990856</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>167.0216567798408</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>150.0170483146331</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>207.5963906905016</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.77250173713472</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>317.2655292839913</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>153.095296658268</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>351.957370161717</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.88126300749902</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>334.3658782825033</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.16954853629574</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2371,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>183.5236380974013</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>35.10362800310591</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>191.9284587841978</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.21879981048506</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2803,13 +2803,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>123.8394724344234</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>117.4784251967216</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>174.1372571702758</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.7182174719653</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.257876330812757</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>60.65005181979099</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>105.7260771668982</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>358.6719414979484</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,10 +3991,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.69750854942532</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751807</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.693821706375</v>
+        <v>2115.323394029655</v>
       </c>
       <c r="C2" t="n">
-        <v>860.5692310196448</v>
+        <v>1705.198803342926</v>
       </c>
       <c r="D2" t="n">
-        <v>456.1053011127053</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K2" t="n">
-        <v>692.8507596625949</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L2" t="n">
-        <v>692.8507596625949</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T2" t="n">
-        <v>2081.851674422774</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U2" t="n">
-        <v>2081.851674422774</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="V2" t="n">
-        <v>2081.851674422774</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="W2" t="n">
-        <v>2081.851674422774</v>
+        <v>3206.528885571226</v>
       </c>
       <c r="X2" t="n">
-        <v>2081.851674422774</v>
+        <v>2926.481246746055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.915001370864</v>
+        <v>2525.544573694145</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>122.7822908605259</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="W4" t="n">
-        <v>382.8468301365112</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="X4" t="n">
-        <v>382.8468301365112</v>
+        <v>535.2176958658056</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1111315252759</v>
+        <v>310.4819972545703</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2537.124802007269</v>
+        <v>1988.875980947992</v>
       </c>
       <c r="C5" t="n">
-        <v>2127.000211320539</v>
+        <v>1578.751390261262</v>
       </c>
       <c r="D5" t="n">
-        <v>1722.5362814136</v>
+        <v>1578.751390261262</v>
       </c>
       <c r="E5" t="n">
-        <v>1308.196065930497</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F5" t="n">
-        <v>887.1656538841842</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G5" t="n">
-        <v>478.4373697770163</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H5" t="n">
-        <v>167.5288724047343</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I5" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J5" t="n">
-        <v>335.3625811895618</v>
+        <v>124.188191493897</v>
       </c>
       <c r="K5" t="n">
-        <v>873.5220822986013</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="L5" t="n">
-        <v>1586.113482110839</v>
+        <v>662.3476926029365</v>
       </c>
       <c r="M5" t="n">
-        <v>2362.432073102593</v>
+        <v>1438.66628359469</v>
       </c>
       <c r="N5" t="n">
-        <v>3115.613089741211</v>
+        <v>2191.847300233308</v>
       </c>
       <c r="O5" t="n">
-        <v>3759.243946158316</v>
+        <v>2835.478156650413</v>
       </c>
       <c r="P5" t="n">
-        <v>4058.855486090372</v>
+        <v>3364.634854569565</v>
       </c>
       <c r="Q5" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R5" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S5" t="n">
-        <v>3923.574410884473</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T5" t="n">
-        <v>3923.574410884473</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U5" t="n">
-        <v>3666.513919143983</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V5" t="n">
-        <v>3666.513919143983</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="W5" t="n">
-        <v>3666.513919143983</v>
+        <v>3200.677231495439</v>
       </c>
       <c r="X5" t="n">
-        <v>3348.282654723669</v>
+        <v>2800.033833664391</v>
       </c>
       <c r="Y5" t="n">
-        <v>2947.345981671759</v>
+        <v>2399.097160612481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C6" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D6" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E6" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F6" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G6" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H6" t="n">
-        <v>101.9257011015673</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I6" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J6" t="n">
-        <v>81.17710972180744</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K6" t="n">
-        <v>81.17710972180744</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L6" t="n">
-        <v>742.2652816410957</v>
+        <v>927.6169467092186</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.709215026413</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.709215026413</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O6" t="n">
-        <v>2127.666305572307</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P6" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R6" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S6" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T6" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U6" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V6" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W6" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X6" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y6" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I7" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J7" t="n">
-        <v>95.25965912701795</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K7" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L7" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M7" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N7" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O7" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P7" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q7" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R7" t="n">
-        <v>1525.303288018057</v>
+        <v>1517.842095523547</v>
       </c>
       <c r="S7" t="n">
-        <v>1338.911519897968</v>
+        <v>1331.450327403457</v>
       </c>
       <c r="T7" t="n">
-        <v>1099.36278087467</v>
+        <v>1091.901588380159</v>
       </c>
       <c r="U7" t="n">
-        <v>816.5646334207938</v>
+        <v>809.1034409262836</v>
       </c>
       <c r="V7" t="n">
-        <v>542.6788883603158</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="W7" t="n">
-        <v>268.8768161158519</v>
+        <v>724.4951843728934</v>
       </c>
       <c r="X7" t="n">
-        <v>268.8768161158519</v>
+        <v>486.1513222325768</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.8768161158519</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.845002066954</v>
+        <v>1302.131180015548</v>
       </c>
       <c r="C8" t="n">
-        <v>1489.720411380224</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="D8" t="n">
-        <v>1085.256481473285</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="E8" t="n">
-        <v>670.9162659901813</v>
+        <v>892.0065893288184</v>
       </c>
       <c r="F8" t="n">
-        <v>249.8858539438688</v>
+        <v>470.976177282506</v>
       </c>
       <c r="G8" t="n">
-        <v>81.17710972180744</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H8" t="n">
-        <v>81.17710972180744</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I8" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J8" t="n">
-        <v>322.8159175162134</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K8" t="n">
-        <v>322.8159175162134</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L8" t="n">
-        <v>1035.407317328451</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M8" t="n">
-        <v>1811.725908320205</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="N8" t="n">
-        <v>2564.906924958823</v>
+        <v>2151.290654543744</v>
       </c>
       <c r="O8" t="n">
-        <v>3208.537781375928</v>
+        <v>2794.921510960849</v>
       </c>
       <c r="P8" t="n">
-        <v>3737.69447929508</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q8" t="n">
-        <v>4058.855486090372</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R8" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S8" t="n">
-        <v>3923.574410884473</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T8" t="n">
-        <v>3701.367926831332</v>
+        <v>3328.308302105817</v>
       </c>
       <c r="U8" t="n">
-        <v>3444.307435090842</v>
+        <v>3071.247810365327</v>
       </c>
       <c r="V8" t="n">
-        <v>3094.469880427323</v>
+        <v>2721.410255701808</v>
       </c>
       <c r="W8" t="n">
-        <v>2710.709579562491</v>
+        <v>2337.649954836976</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.066181731444</v>
+        <v>1937.006557005929</v>
       </c>
       <c r="Y8" t="n">
-        <v>2310.066181731444</v>
+        <v>1536.069883954019</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C9" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D9" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E9" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F9" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G9" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H9" t="n">
-        <v>101.9257011015673</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I9" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J9" t="n">
-        <v>81.17710972180744</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K9" t="n">
-        <v>536.9833659871061</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L9" t="n">
-        <v>536.9833659871061</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="M9" t="n">
-        <v>550.0511229147953</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="N9" t="n">
-        <v>1423.709215026413</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="O9" t="n">
-        <v>2127.666305572307</v>
+        <v>1179.095236542654</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R9" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S9" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T9" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U9" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V9" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W9" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X9" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y9" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J10" t="n">
-        <v>95.25965912701795</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K10" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L10" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M10" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N10" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O10" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P10" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q10" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R10" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S10" t="n">
-        <v>1338.911519897968</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T10" t="n">
-        <v>1099.36278087467</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U10" t="n">
-        <v>816.5646334207938</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V10" t="n">
-        <v>542.6788883603158</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W10" t="n">
-        <v>263.6092238691901</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X10" t="n">
-        <v>81.17710972180744</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1731.136257844892</v>
+        <v>2529.663609512759</v>
       </c>
       <c r="C11" t="n">
-        <v>1321.011667158163</v>
+        <v>2119.539018826029</v>
       </c>
       <c r="D11" t="n">
-        <v>916.5477372512232</v>
+        <v>1715.075088919089</v>
       </c>
       <c r="E11" t="n">
-        <v>502.2075217681199</v>
+        <v>1300.734873435986</v>
       </c>
       <c r="F11" t="n">
-        <v>81.17710972180744</v>
+        <v>879.7044613896738</v>
       </c>
       <c r="G11" t="n">
-        <v>81.17710972180744</v>
+        <v>470.976177282506</v>
       </c>
       <c r="H11" t="n">
-        <v>81.17710972180744</v>
+        <v>160.067679910224</v>
       </c>
       <c r="I11" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J11" t="n">
-        <v>335.3625811895618</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K11" t="n">
-        <v>873.5220822986013</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.113482110839</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M11" t="n">
-        <v>2362.432073102593</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N11" t="n">
-        <v>3115.613089741211</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.137833605515</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="P11" t="n">
-        <v>3697.137833605515</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q11" t="n">
-        <v>4018.298840400807</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R11" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S11" t="n">
-        <v>3923.574410884473</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="T11" t="n">
-        <v>3701.367926831332</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="U11" t="n">
-        <v>3444.307435090842</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="V11" t="n">
-        <v>3094.469880427323</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="W11" t="n">
-        <v>2942.93750839234</v>
+        <v>3550.514786158958</v>
       </c>
       <c r="X11" t="n">
-        <v>2542.294110561292</v>
+        <v>3340.821462229158</v>
       </c>
       <c r="Y11" t="n">
-        <v>2141.357437509382</v>
+        <v>2939.884789177248</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C12" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D12" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E12" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F12" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G12" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H12" t="n">
-        <v>101.9257011015673</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I12" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J12" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K12" t="n">
-        <v>81.17710972180744</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="L12" t="n">
-        <v>81.17710972180744</v>
+        <v>529.5221734925958</v>
       </c>
       <c r="M12" t="n">
-        <v>924.1541904163741</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.812282527992</v>
+        <v>854.5421300433729</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.666305572307</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P12" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q12" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R12" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S12" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T12" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U12" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V12" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W12" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X12" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y12" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I13" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J13" t="n">
-        <v>95.25965912701795</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K13" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L13" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M13" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N13" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O13" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P13" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q13" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R13" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S13" t="n">
-        <v>1338.911519897968</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T13" t="n">
-        <v>1099.36278087467</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U13" t="n">
-        <v>816.5646334207938</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V13" t="n">
-        <v>542.6788883603158</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W13" t="n">
-        <v>263.6092238691901</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X13" t="n">
-        <v>81.17710972180744</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.17710972180744</v>
+        <v>261.4156236213415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1701.754174477854</v>
+        <v>1928.411450900408</v>
       </c>
       <c r="C14" t="n">
-        <v>1291.629583791124</v>
+        <v>1518.286860213678</v>
       </c>
       <c r="D14" t="n">
-        <v>887.1656538841842</v>
+        <v>1113.822930306738</v>
       </c>
       <c r="E14" t="n">
-        <v>887.1656538841842</v>
+        <v>1113.822930306738</v>
       </c>
       <c r="F14" t="n">
-        <v>887.1656538841842</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G14" t="n">
-        <v>478.4373697770163</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H14" t="n">
-        <v>167.5288724047343</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I14" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J14" t="n">
-        <v>335.3625811895618</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="K14" t="n">
-        <v>873.5220822986013</v>
+        <v>611.8754183363367</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.113482110839</v>
+        <v>1324.466818148575</v>
       </c>
       <c r="M14" t="n">
-        <v>2362.432073102593</v>
+        <v>2100.785409140329</v>
       </c>
       <c r="N14" t="n">
-        <v>3115.613089741211</v>
+        <v>2853.966425778947</v>
       </c>
       <c r="O14" t="n">
-        <v>3759.243946158316</v>
+        <v>3497.597282196052</v>
       </c>
       <c r="P14" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q14" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R14" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S14" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T14" t="n">
-        <v>3904.213772294142</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="U14" t="n">
-        <v>3647.153280553652</v>
+        <v>3463.589377311716</v>
       </c>
       <c r="V14" t="n">
-        <v>3297.315725890132</v>
+        <v>3113.751822648197</v>
       </c>
       <c r="W14" t="n">
-        <v>2913.555425025301</v>
+        <v>2729.991521783365</v>
       </c>
       <c r="X14" t="n">
-        <v>2512.912027194253</v>
+        <v>2329.348123952318</v>
       </c>
       <c r="Y14" t="n">
-        <v>2111.975354142343</v>
+        <v>1928.411450900408</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C15" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D15" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E15" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F15" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G15" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H15" t="n">
-        <v>101.9257011015673</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I15" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J15" t="n">
-        <v>81.17710972180744</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K15" t="n">
-        <v>411.0311327661229</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="L15" t="n">
-        <v>411.0311327661229</v>
+        <v>867.1430369195659</v>
       </c>
       <c r="M15" t="n">
-        <v>1254.00821346069</v>
+        <v>867.1430369195659</v>
       </c>
       <c r="N15" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="P15" t="n">
-        <v>2127.666305572307</v>
+        <v>1740.801129031184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2127.666305572307</v>
+        <v>2090.645593715167</v>
       </c>
       <c r="R15" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S15" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T15" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U15" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V15" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W15" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X15" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y15" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J16" t="n">
-        <v>95.25965912701795</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K16" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L16" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M16" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N16" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O16" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P16" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q16" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R16" t="n">
-        <v>1525.303288018057</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S16" t="n">
-        <v>1338.911519897968</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T16" t="n">
-        <v>1099.36278087467</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U16" t="n">
-        <v>816.5646334207938</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V16" t="n">
-        <v>542.6788883603158</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W16" t="n">
-        <v>263.6092238691901</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X16" t="n">
-        <v>81.17710972180744</v>
+        <v>289.4686556790534</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W17" t="n">
-        <v>3674.640877840605</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X17" t="n">
-        <v>3273.997480009557</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>2945.549711724955</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>3788.526792419522</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>4662.18488453114</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>4662.18488453114</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.298732171156</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5791,13 +5791,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.3830142463817</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>874.3830142463817</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1153.452678737507</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1153.452678737507</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>874.3830142463817</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>874.3830142463817</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.3830142463817</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>519.2872662249838</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>280.9434040846672</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>280.9434040846672</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3401.747935779044</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3240.837120647363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
         <v>885.5886702674165</v>
@@ -6727,16 +6727,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4401.813433128853</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4144.752941388363</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
         <v>3760.992640523532</v>
@@ -6788,19 +6788,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>524.2254458227151</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N33" t="n">
-        <v>524.2254458227151</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3401.747935779044</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3240.837120647363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.672769375206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>4332.330861486824</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3926.132899060943</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3755.039526622659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3595.544881945569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3434.634066813889</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4576.912166206539</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4576.912166206539</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>4338.568304066222</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>4113.832605454987</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7174,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2633.74009917404</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>3089.546355439338</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>3750.634527358626</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>3750.634527358626</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>3750.634527358626</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O39" t="n">
-        <v>3750.634527358626</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>4312.340419847156</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7362,19 +7362,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
         <v>93.2436976906228</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1721.114813068185</v>
+        <v>2028.971631346729</v>
       </c>
       <c r="C41" t="n">
-        <v>1310.990222381455</v>
+        <v>1618.847040659999</v>
       </c>
       <c r="D41" t="n">
-        <v>906.5262924745157</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="E41" t="n">
-        <v>492.1860769914124</v>
+        <v>1214.38311075306</v>
       </c>
       <c r="F41" t="n">
-        <v>489.9053938289753</v>
+        <v>793.352698706747</v>
       </c>
       <c r="G41" t="n">
-        <v>81.17710972180744</v>
+        <v>384.6244145995792</v>
       </c>
       <c r="H41" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I41" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J41" t="n">
-        <v>81.17710972180744</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K41" t="n">
-        <v>619.336610830847</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L41" t="n">
-        <v>1331.928010643085</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M41" t="n">
-        <v>2108.246601634839</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N41" t="n">
-        <v>2861.427618273457</v>
+        <v>2680.447352462895</v>
       </c>
       <c r="O41" t="n">
-        <v>3505.058474690562</v>
+        <v>3324.07820888</v>
       </c>
       <c r="P41" t="n">
-        <v>3697.137833605515</v>
+        <v>3324.07820888</v>
       </c>
       <c r="Q41" t="n">
-        <v>4018.298840400807</v>
+        <v>3645.239215675292</v>
       </c>
       <c r="R41" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S41" t="n">
-        <v>3923.574410884473</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T41" t="n">
-        <v>3923.574410884473</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U41" t="n">
-        <v>3666.513919143983</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V41" t="n">
-        <v>3316.676364480464</v>
+        <v>3624.533182759008</v>
       </c>
       <c r="W41" t="n">
-        <v>2932.916063615632</v>
+        <v>3240.772881894176</v>
       </c>
       <c r="X41" t="n">
-        <v>2532.272665784585</v>
+        <v>2840.129484063129</v>
       </c>
       <c r="Y41" t="n">
-        <v>2131.335992732675</v>
+        <v>2439.192811011219</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C42" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D42" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E42" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F42" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G42" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H42" t="n">
-        <v>101.9257011015673</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I42" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J42" t="n">
-        <v>273.9899672844407</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K42" t="n">
-        <v>729.7962235497394</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L42" t="n">
-        <v>1186.556429037164</v>
+        <v>1383.423202974517</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.556429037164</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="N42" t="n">
-        <v>1186.556429037164</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="O42" t="n">
-        <v>1186.556429037164</v>
+        <v>1558.499220589267</v>
       </c>
       <c r="P42" t="n">
-        <v>1748.262321525694</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="Q42" t="n">
-        <v>2098.106786209677</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R42" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S42" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T42" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U42" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V42" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W42" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X42" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y42" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2797.161421941504</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C43" t="n">
-        <v>2690.367404601203</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D43" t="n">
-        <v>2690.367404601203</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E43" t="n">
-        <v>2529.456589469522</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F43" t="n">
-        <v>2529.456589469522</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G43" t="n">
-        <v>2529.456589469522</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H43" t="n">
-        <v>2529.456589469522</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I43" t="n">
-        <v>2529.456589469522</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J43" t="n">
-        <v>2543.539138874733</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K43" t="n">
-        <v>2698.091466596971</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L43" t="n">
-        <v>2957.988566877031</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M43" t="n">
-        <v>3247.252623317524</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N43" t="n">
-        <v>3528.091405711775</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O43" t="n">
-        <v>3787.652016038249</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P43" t="n">
-        <v>3993.327456287861</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q43" t="n">
-        <v>4058.855486090372</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R43" t="n">
-        <v>4058.855486090372</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S43" t="n">
-        <v>3872.463717970282</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T43" t="n">
-        <v>3632.914978946984</v>
+        <v>1363.566074824849</v>
       </c>
       <c r="U43" t="n">
-        <v>3350.116831493108</v>
+        <v>1080.767927370974</v>
       </c>
       <c r="V43" t="n">
-        <v>3076.23108643263</v>
+        <v>806.8821823104956</v>
       </c>
       <c r="W43" t="n">
-        <v>2797.161421941504</v>
+        <v>527.81251781937</v>
       </c>
       <c r="X43" t="n">
-        <v>2797.161421941504</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y43" t="n">
-        <v>2797.161421941504</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2042.044755217174</v>
+        <v>2090.234309952579</v>
       </c>
       <c r="C44" t="n">
-        <v>1631.920164530445</v>
+        <v>1680.109719265849</v>
       </c>
       <c r="D44" t="n">
-        <v>1227.456234623505</v>
+        <v>1317.814828863881</v>
       </c>
       <c r="E44" t="n">
-        <v>813.1160191404019</v>
+        <v>903.4746133807774</v>
       </c>
       <c r="F44" t="n">
-        <v>392.0856070940894</v>
+        <v>482.444201334465</v>
       </c>
       <c r="G44" t="n">
-        <v>392.0856070940894</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H44" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I44" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J44" t="n">
-        <v>81.17710972180744</v>
+        <v>327.9013886950514</v>
       </c>
       <c r="K44" t="n">
-        <v>282.2592718266484</v>
+        <v>866.0608898040909</v>
       </c>
       <c r="L44" t="n">
-        <v>994.8506716388864</v>
+        <v>1578.652289616329</v>
       </c>
       <c r="M44" t="n">
-        <v>1771.16926263064</v>
+        <v>2354.970880608083</v>
       </c>
       <c r="N44" t="n">
-        <v>2524.350279269258</v>
+        <v>3108.151897246701</v>
       </c>
       <c r="O44" t="n">
-        <v>3167.981135686363</v>
+        <v>3156.639163445705</v>
       </c>
       <c r="P44" t="n">
-        <v>3697.137833605515</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="Q44" t="n">
-        <v>4018.298840400807</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="R44" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="S44" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="T44" t="n">
-        <v>4058.855486090372</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="U44" t="n">
-        <v>3987.443861292973</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="V44" t="n">
-        <v>3637.606306629453</v>
+        <v>3685.795861364857</v>
       </c>
       <c r="W44" t="n">
-        <v>3253.846005764622</v>
+        <v>3302.035560500025</v>
       </c>
       <c r="X44" t="n">
-        <v>2853.202607933574</v>
+        <v>2901.392162668978</v>
       </c>
       <c r="Y44" t="n">
-        <v>2452.265934881664</v>
+        <v>2500.455489617068</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>760.0079516083417</v>
+        <v>752.5467591138315</v>
       </c>
       <c r="C45" t="n">
-        <v>626.0128803572875</v>
+        <v>618.5516878627773</v>
       </c>
       <c r="D45" t="n">
-        <v>509.1157225766799</v>
+        <v>501.6545300821697</v>
       </c>
       <c r="E45" t="n">
-        <v>388.6229065690079</v>
+        <v>381.1617140744977</v>
       </c>
       <c r="F45" t="n">
-        <v>279.6630267515125</v>
+        <v>272.2018342570022</v>
       </c>
       <c r="G45" t="n">
-        <v>172.6729140658512</v>
+        <v>165.2117215713409</v>
       </c>
       <c r="H45" t="n">
-        <v>101.9257011015673</v>
+        <v>94.46450860705697</v>
       </c>
       <c r="I45" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J45" t="n">
-        <v>81.17710972180744</v>
+        <v>266.5287747899304</v>
       </c>
       <c r="K45" t="n">
-        <v>536.9833659871061</v>
+        <v>722.3350310552291</v>
       </c>
       <c r="L45" t="n">
-        <v>1186.556429037164</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.556429037164</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="N45" t="n">
-        <v>1186.556429037164</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="O45" t="n">
-        <v>1186.556429037164</v>
+        <v>1208.654755905284</v>
       </c>
       <c r="P45" t="n">
-        <v>1748.262321525694</v>
+        <v>1770.360648393814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2098.106786209677</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="R45" t="n">
-        <v>2127.666305572307</v>
+        <v>2120.205113077797</v>
       </c>
       <c r="S45" t="n">
-        <v>2019.676295686616</v>
+        <v>2012.215103192106</v>
       </c>
       <c r="T45" t="n">
-        <v>1860.334431873625</v>
+        <v>1852.873239379114</v>
       </c>
       <c r="U45" t="n">
-        <v>1662.983621011843</v>
+        <v>1655.522428517333</v>
       </c>
       <c r="V45" t="n">
-        <v>1449.272094004877</v>
+        <v>1441.810901510367</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.038925741206</v>
+        <v>1228.577733246696</v>
       </c>
       <c r="X45" t="n">
-        <v>1059.712943880098</v>
+        <v>1052.251751385588</v>
       </c>
       <c r="Y45" t="n">
-        <v>900.3109842439284</v>
+        <v>892.8497917494182</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="C46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="D46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="E46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="F46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="G46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="H46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="I46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
       <c r="J46" t="n">
-        <v>95.25965912701795</v>
+        <v>87.79846663250765</v>
       </c>
       <c r="K46" t="n">
-        <v>249.8119868492559</v>
+        <v>242.3507943547456</v>
       </c>
       <c r="L46" t="n">
-        <v>509.7090871293165</v>
+        <v>502.2478946348062</v>
       </c>
       <c r="M46" t="n">
-        <v>798.9731435698097</v>
+        <v>791.5119510752995</v>
       </c>
       <c r="N46" t="n">
-        <v>1079.81192596406</v>
+        <v>1072.35073346955</v>
       </c>
       <c r="O46" t="n">
-        <v>1339.372536290534</v>
+        <v>1331.911343796024</v>
       </c>
       <c r="P46" t="n">
-        <v>1545.047976540147</v>
+        <v>1537.586784045636</v>
       </c>
       <c r="Q46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="R46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="S46" t="n">
-        <v>1610.576006342658</v>
+        <v>1603.114813848147</v>
       </c>
       <c r="T46" t="n">
-        <v>1371.02726731936</v>
+        <v>1372.549034984329</v>
       </c>
       <c r="U46" t="n">
-        <v>1088.229119865484</v>
+        <v>1089.750887530453</v>
       </c>
       <c r="V46" t="n">
-        <v>814.3433748050059</v>
+        <v>815.8651424699747</v>
       </c>
       <c r="W46" t="n">
-        <v>535.2737103138802</v>
+        <v>536.795477978849</v>
       </c>
       <c r="X46" t="n">
-        <v>296.9298481735636</v>
+        <v>298.4516158385325</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.17710972180744</v>
+        <v>73.71591722729714</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>490.0456851936601</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>537.5843517396877</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P3" t="n">
-        <v>555.2297277821215</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>124.3056865520957</v>
       </c>
       <c r="K5" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>877.4504173780091</v>
@@ -8233,10 +8233,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>396.2872824041726</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -8303,22 +8303,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>745.891489178132</v>
+        <v>311.5827583176448</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>317.4031951660413</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>671.7128152928178</v>
       </c>
       <c r="N8" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M9" t="n">
-        <v>70.76403821083073</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>680.5885068018474</v>
+        <v>676.6685272602841</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>385.8672701533438</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8944,7 +8944,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>396.2872824041726</v>
+        <v>283.7489381988693</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9005,16 +9005,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>389.0116646475603</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>662.7955966690668</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
@@ -9026,10 +9026,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>389.3004056737939</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9418,10 +9418,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>203.6789803756668</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>86.34977678504856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>492.8993828617429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10451,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>69.59591606606055</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11071,13 +11071,13 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>853.701196452193</v>
+        <v>421.6764037412781</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>287.6689177404327</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11144,10 +11144,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11159,10 +11159,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>292.249684728612</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11311,16 +11311,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>142.166812190434</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>712.2489309321196</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,10 +22600,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>213.6458382258549</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22612,7 +22612,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>119.3898014158174</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>120.8067288170042</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>157.0631340559315</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22789,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>134.9604616712494</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22840,16 +22840,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>81.58801207662577</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.3847136220169</v>
       </c>
       <c r="W7" t="n">
-        <v>5.214916324195087</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>174.519650968759</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>237.6193444862553</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>229.90564954155</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>189.0405731622354</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879882</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>99.55457864185797</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>66.88912255434178</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>54.06597461814556</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.6070786176239</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>45.55681957367977</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>135.7301496940233</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>241.1753398431084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>62.56142803888719</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>129.680898419834</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>308.5558614412305</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>137.0114616263634</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>222.4997066824612</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>12.26659715854936</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>414.5622315950366</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>285.6891272970931</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>63.65636154700242</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -25836,7 +25836,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.74734910992163</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25921,10 +25921,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>183.7923782736597</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884234</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>494961.2604890607</v>
+        <v>655473.7682381507</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>692956.8213609038</v>
+        <v>655473.7682381506</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>692956.8213609037</v>
+        <v>655473.7682381506</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692956.8213609037</v>
+        <v>655473.7682381507</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692956.8213609036</v>
+        <v>655473.7682381506</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753576.1604515726</v>
+        <v>753576.160451573</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753576.160451573</v>
+        <v>753576.1604515729</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753576.1604515727</v>
+        <v>753576.160451573</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753576.1604515727</v>
+        <v>753576.1604515729</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753576.1604515729</v>
+        <v>753576.160451573</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753576.1604515729</v>
+        <v>753576.160451573</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692956.8213609036</v>
+        <v>655473.7682381506</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692956.8213609037</v>
+        <v>655473.7682381506</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190259.0141861051</v>
+        <v>251946.420850112</v>
       </c>
       <c r="C2" t="n">
-        <v>266351.730276878</v>
+        <v>251946.420850112</v>
       </c>
       <c r="D2" t="n">
-        <v>266351.7302768781</v>
+        <v>251946.420850112</v>
       </c>
       <c r="E2" t="n">
-        <v>266351.7302768779</v>
+        <v>251946.4208501119</v>
       </c>
       <c r="F2" t="n">
-        <v>266351.730276878</v>
+        <v>251946.420850112</v>
       </c>
       <c r="G2" t="n">
-        <v>289648.6675350938</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="H2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="I2" t="n">
-        <v>289648.6675350937</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="J2" t="n">
         <v>289648.6675350937</v>
       </c>
       <c r="K2" t="n">
-        <v>289648.6675350937</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="L2" t="n">
         <v>289648.6675350938</v>
       </c>
       <c r="M2" t="n">
-        <v>289648.6675350939</v>
+        <v>289648.6675350937</v>
       </c>
       <c r="N2" t="n">
-        <v>289648.6675350937</v>
+        <v>289648.6675350938</v>
       </c>
       <c r="O2" t="n">
-        <v>266351.730276878</v>
+        <v>251946.420850112</v>
       </c>
       <c r="P2" t="n">
-        <v>266351.7302768779</v>
+        <v>251946.420850112</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>308798.7416120438</v>
       </c>
       <c r="C3" t="n">
-        <v>159160.8707514665</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41340.88454290947</v>
+        <v>66903.39635363265</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>241091.5930877367</v>
       </c>
       <c r="K3" t="n">
-        <v>126792.4227070339</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19747.62995624142</v>
+        <v>26230.44077798684</v>
       </c>
       <c r="C4" t="n">
-        <v>27744.31372049975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="D4" t="n">
-        <v>27744.31372049976</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="E4" t="n">
-        <v>27744.31372049975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="F4" t="n">
-        <v>27744.31372049975</v>
+        <v>26230.44077798684</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26450,16 +26450,16 @@
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>27744.31372049975</v>
+        <v>26230.44077798685</v>
       </c>
       <c r="P4" t="n">
-        <v>27744.31372049975</v>
+        <v>26230.44077798685</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="C5" t="n">
-        <v>95322.20338857365</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="D5" t="n">
-        <v>95322.20338857365</v>
+        <v>89651.69709274583</v>
       </c>
       <c r="E5" t="n">
-        <v>61694.60338857365</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="F5" t="n">
-        <v>61694.60338857365</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>61694.60338857365</v>
+        <v>56024.09709274583</v>
       </c>
       <c r="P5" t="n">
-        <v>61694.60338857365</v>
+        <v>56024.09709274583</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69813.19074174794</v>
+        <v>-173103.5504587384</v>
       </c>
       <c r="C6" t="n">
-        <v>-15875.65758366189</v>
+        <v>135695.1911533053</v>
       </c>
       <c r="D6" t="n">
-        <v>143285.2131678046</v>
+        <v>135695.1911533053</v>
       </c>
       <c r="E6" t="n">
-        <v>176912.8131678045</v>
+        <v>169322.7911533052</v>
       </c>
       <c r="F6" t="n">
-        <v>176912.8131678046</v>
+        <v>169322.7911533054</v>
       </c>
       <c r="G6" t="n">
-        <v>147249.9532033277</v>
+        <v>121506.8607999553</v>
       </c>
       <c r="H6" t="n">
-        <v>188590.8377462372</v>
+        <v>188410.2571535881</v>
       </c>
       <c r="I6" t="n">
-        <v>188590.8377462371</v>
+        <v>188410.2571535881</v>
       </c>
       <c r="J6" t="n">
-        <v>51996.03694034216</v>
+        <v>-52681.33593414872</v>
       </c>
       <c r="K6" t="n">
-        <v>61798.41503920319</v>
+        <v>188410.2571535881</v>
       </c>
       <c r="L6" t="n">
-        <v>188590.8377462372</v>
+        <v>188410.2571535881</v>
       </c>
       <c r="M6" t="n">
-        <v>188590.8377462373</v>
+        <v>188410.257153588</v>
       </c>
       <c r="N6" t="n">
-        <v>188590.8377462371</v>
+        <v>188410.2571535881</v>
       </c>
       <c r="O6" t="n">
-        <v>176912.8131678046</v>
+        <v>169322.7911533053</v>
       </c>
       <c r="P6" t="n">
-        <v>176912.8131678045</v>
+        <v>169322.7911533053</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="D4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="E4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="F4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.713871522593</v>
+        <v>921.4489653412143</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="C4" t="n">
-        <v>492.6503011525672</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.832349610192</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
-        <v>492.6503011525672</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>921.4489653412143</v>
       </c>
       <c r="K4" t="n">
-        <v>492.6503011525672</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.832349610192</v>
+        <v>244.0972557915707</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>400.909295520443</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>444.3945761139046</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P3" t="n">
-        <v>500.9700927793177</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>50.98209521878771</v>
       </c>
       <c r="K5" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>784.1601929209636</v>
@@ -34953,10 +34953,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>302.6379191232885</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>688.3272054397146</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>244.0796038327333</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>578.4225908357723</v>
       </c>
       <c r="N8" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M9" t="n">
-        <v>13.19975447241331</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>587.3987311760643</v>
+        <v>583.478751634501</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>328.3029864149264</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35664,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>302.6379191232885</v>
+        <v>190.0995749179851</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>606.6810728582177</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>33.15638339129857</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37171,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.22667726606054</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37791,13 +37791,13 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>760.7889056955737</v>
+        <v>328.7641129846588</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>194.0195544595485</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37864,10 +37864,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>203.1132950553949</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38031,16 +38031,16 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>48.97703656465086</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>656.1344071212706</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
